--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,14 +452,6 @@
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
